--- a/biology/Médecine/Outremangeurs_Anonymes/Outremangeurs_Anonymes.xlsx
+++ b/biology/Médecine/Outremangeurs_Anonymes/Outremangeurs_Anonymes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outremangeurs anonymes (OA) est une association d'hommes et de femmes qui partagent leur expérience personnelle, leur force et leur espoir dans le but de se rétablir de la compulsion alimentaire (besoin pressant et irrésistible de manger de façon déraisonnable)[1].
-OA accueille toute personne qui veut arrêter de manger compulsivement. Il n'y a ni frais d'adhésion ni obligation financière d'aucune sorte pour devenir membre. OA subvient à ses besoins grâce aux contributions de ses membres ; OA ne sollicite jamais d'argent à l'extérieur du mouvement et n'accepte pas de dons des non-membres. OA n'est affilié à aucun organisme public ou privé, à aucun mouvement politique ou idéologique et à aucune doctrine religieuse[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outremangeurs anonymes (OA) est une association d'hommes et de femmes qui partagent leur expérience personnelle, leur force et leur espoir dans le but de se rétablir de la compulsion alimentaire (besoin pressant et irrésistible de manger de façon déraisonnable).
+OA accueille toute personne qui veut arrêter de manger compulsivement. Il n'y a ni frais d'adhésion ni obligation financière d'aucune sorte pour devenir membre. OA subvient à ses besoins grâce aux contributions de ses membres ; OA ne sollicite jamais d'argent à l'extérieur du mouvement et n'accepte pas de dons des non-membres. OA n'est affilié à aucun organisme public ou privé, à aucun mouvement politique ou idéologique et à aucune doctrine religieuse.
 La seule condition requise pour être membre est un désir d'arrêter de manger compulsivement.
 Le programme de rétablissement est basé sur celui des Alcooliques anonymes dans le respect des « Douze Étapes » et des « Douze Traditions. »
 </t>
@@ -514,11 +526,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première réunion OA, le 19 janvier 1960, réunissait trois outremangeurs compulsifs vivant à Los Angeles. C'est le fondateur des Gamblers Anonymous qui a aidé la fondatrice des OA, Rozanne S., à appliquer les principes des Alcooliques anonymes à la compulsion alimentaire. Le 1er novembre 1960, Rozanne ainsi que Barbara, l'une des premières membres, ont été interviewées au cours d'une émission de télévision diffusée par plusieurs grandes chaînes américaines. Elles reçurent cinq cents lettres d'auditrices et d'auditeurs. Le mouvement OA était né.
 Le répertoire OA de 1961 faisait état de dix réunions. En août 1962, les représentants de groupes anonymes axés sur la compulsion alimentaire d'autres régions des États-Unis sont venus se joindre aux groupes du sud de la Californie pour la première Conférence nationale. Depuis 1973, la célèbre journaliste américaine Dear Abby publie dans sa chronique des lettres de membres reconnaissants et cette publicité a attiré des milliers de nouveaux membres.
-Aujourd'hui, des milliers de groupes ont été fondés dans au moins 22 pays[3].
+Aujourd'hui, des milliers de groupes ont été fondés dans au moins 22 pays.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Les OA et les régimes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour OA, la nourriture et le poids ne sont que les symptômes d'autres problèmes. La nourriture est une dépendance au même titre que les alcooliques sont dépendants à l'alcool et les toxicomanes à la drogue. Les OA ne prennent pas position sur ce qui pourrait constituer un bon programme alimentaire de perte, de maintien ou de prise de poids. OA ne suggère ni menus ni régimes, pas plus que de services de consultations, ni traitement, ni hospitalisation. Les OA ne participent à aucun titre à des programmes de recherche ou d'information sur les désordres alimentaires.
 </t>
@@ -578,9 +594,11 @@
           <t>Les douze étapes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le programme de rétablissement basé sur douze étapes[4] est qualifié de « spirituel », puisqu'il préconise un changement intérieur :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le programme de rétablissement basé sur douze étapes est qualifié de « spirituel », puisqu'il préconise un changement intérieur :
 Nous avons admis que nous étions impuissants devant la nourriture, que nous avions perdu la maîtrise de notre vie.
 Nous en sommes venus à croire qu’une Puissance supérieure à nous-mêmes pouvait nous rendre la raison.
 Nous avons décidé de confier notre volonté et notre vie aux soins de Dieu tel que nous Le concevions.
@@ -620,9 +638,11 @@
           <t>Les douze traditions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les traditions ont été conçues pour garantir le bon fonctionnement des groupes[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les traditions ont été conçues pour garantir le bon fonctionnement des groupes.
 Notre bien être commun devrait venir en premier lieu; le rétablissement personnel dépend de l'unité de OA.
 Pour le bénéfice de notre groupe, il n'existe qu'une seule autorité ultime, un Dieu d'amour comme il peut se manifester dans la conscience de notre groupe. Nos chefs ne sont que de fidèles serviteurs, ils ne gouvernent pas.
 La seule condition requise pour devenir membre des OA est le désir d'arrêter de manger compulsivement.
